--- a/A1 Ten Bonds Data.xlsx
+++ b/A1 Ten Bonds Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8636f347b392a1a/Desktop/APM466/A1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{8D1AACDE-DC46-41FB-B8DB-DEF43B9324E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05E7D7CD-93AB-4832-B029-5832C241658D}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="8_{8D1AACDE-DC46-41FB-B8DB-DEF43B9324E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{150C7720-360B-4F47-A74F-63C17BD6DEC1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="18648" windowHeight="11784" xr2:uid="{D89159A7-59BE-4333-9B7D-027BCFCB60B1}"/>
   </bookViews>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>ISSN</t>
   </si>
   <si>
     <t>Issue Date</t>
-  </si>
-  <si>
-    <t>YIELD</t>
   </si>
   <si>
     <t>MATURITY DATE</t>
@@ -508,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF71D7BD-6640-47EB-9E12-E53EAD195EF5}">
   <dimension ref="B1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,48 +524,45 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>43378</v>
@@ -609,13 +603,11 @@
       <c r="O2" s="3">
         <v>99.72</v>
       </c>
-      <c r="Q2" s="1">
-        <v>4.9399999999999999E-2</v>
-      </c>
+      <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>43560</v>
@@ -656,13 +648,11 @@
       <c r="O3" s="3">
         <v>98.007000000000005</v>
       </c>
-      <c r="Q3" s="1">
-        <v>4.7600000000000003E-2</v>
-      </c>
+      <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>43749</v>
@@ -703,13 +693,11 @@
       <c r="O4" s="3">
         <v>96.46</v>
       </c>
-      <c r="Q4" s="1">
-        <v>4.53E-2</v>
-      </c>
+      <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>43924</v>
@@ -750,13 +738,11 @@
       <c r="O5" s="3">
         <v>94.22</v>
       </c>
-      <c r="Q5" s="1">
-        <v>4.1300000000000003E-2</v>
-      </c>
+      <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>44113</v>
@@ -797,13 +783,11 @@
       <c r="O6" s="3">
         <v>92.545000000000002</v>
       </c>
-      <c r="Q6" s="1">
-        <v>3.8399999999999997E-2</v>
-      </c>
+      <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>44302</v>
@@ -844,13 +828,11 @@
       <c r="O7" s="3">
         <v>93.07</v>
       </c>
-      <c r="Q7" s="1">
-        <v>3.6799999999999999E-2</v>
-      </c>
+      <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>44484</v>
@@ -891,13 +873,11 @@
       <c r="O8" s="3">
         <v>92.763999999999996</v>
       </c>
-      <c r="Q8" s="1">
-        <v>3.61E-2</v>
-      </c>
+      <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>44694</v>
@@ -938,13 +918,11 @@
       <c r="O9" s="3">
         <v>96.947000000000003</v>
       </c>
-      <c r="Q9" s="1">
-        <v>3.5099999999999999E-2</v>
-      </c>
+      <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>44855</v>
@@ -985,13 +963,11 @@
       <c r="O10" s="3">
         <v>99.623000000000005</v>
       </c>
-      <c r="Q10" s="1">
-        <v>3.4200000000000001E-2</v>
-      </c>
+      <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>45037</v>
@@ -1032,13 +1008,11 @@
       <c r="O11" s="3">
         <v>98.77</v>
       </c>
-      <c r="Q11" s="1">
-        <v>3.3599999999999998E-2</v>
-      </c>
+      <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>45212</v>
@@ -1079,9 +1053,7 @@
       <c r="O12">
         <v>102.242</v>
       </c>
-      <c r="Q12" s="4">
-        <v>3.3300000000000003E-2</v>
-      </c>
+      <c r="Q12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
